--- a/KM5c_data/ODP_Site_1082.xlsx
+++ b/KM5c_data/ODP_Site_1082.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>18.05159186</v>
+        <v>16.51</v>
       </c>
       <c r="Q2">
-        <v>7.91507481</v>
+        <v>9.45864292054253</v>
       </c>
       <c r="R2">
-        <v>7.784458100000002</v>
+        <v>9.328026210542532</v>
       </c>
       <c r="S2">
         <v>7.845454548787878</v>
